--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1350424.908400429</v>
+        <v>1347883.333257505</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10009295.05931665</v>
+        <v>10009295.05931664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.7138576864074</v>
+        <v>338.7138576864073</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>321.2529077939342</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.6630576436096</v>
       </c>
       <c r="E11" t="n">
-        <v>337.9103860951886</v>
+        <v>337.9103860951885</v>
       </c>
       <c r="F11" t="n">
-        <v>362.8560617646382</v>
+        <v>362.8560617646381</v>
       </c>
       <c r="G11" t="n">
-        <v>366.9017416763803</v>
+        <v>366.9017416763801</v>
       </c>
       <c r="H11" t="n">
-        <v>250.5877804102473</v>
+        <v>236.543409591623</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.16777781110267</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>159.8979861625469</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>206.9751879818288</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>283.7322744930617</v>
+        <v>283.7322744930616</v>
       </c>
       <c r="W11" t="n">
-        <v>185.8306426634392</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>325.7111167013958</v>
+        <v>325.7111167013957</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.2179546789804</v>
+        <v>342.2179546789803</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.8119962048641</v>
+        <v>135.811996204864</v>
       </c>
       <c r="C13" t="n">
-        <v>123.2268371215547</v>
+        <v>123.2268371215545</v>
       </c>
       <c r="D13" t="n">
-        <v>104.5954890411392</v>
+        <v>104.595489041139</v>
       </c>
       <c r="E13" t="n">
-        <v>102.413978669496</v>
+        <v>102.4139786694958</v>
       </c>
       <c r="F13" t="n">
-        <v>30.9478609499228</v>
+        <v>30.94786094992629</v>
       </c>
       <c r="G13" t="n">
-        <v>122.005824281955</v>
+        <v>122.0058242819549</v>
       </c>
       <c r="H13" t="n">
-        <v>100.7350309372476</v>
+        <v>100.7350309372474</v>
       </c>
       <c r="I13" t="n">
-        <v>52.33243643276491</v>
+        <v>52.33243643276476</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.91216869297415</v>
+        <v>44.91216869297399</v>
       </c>
       <c r="S13" t="n">
-        <v>145.7490413543687</v>
+        <v>145.7490413543686</v>
       </c>
       <c r="T13" t="n">
-        <v>175.528965299096</v>
+        <v>175.5289652990959</v>
       </c>
       <c r="U13" t="n">
-        <v>242.1918542285397</v>
+        <v>242.1918542285395</v>
       </c>
       <c r="V13" t="n">
-        <v>208.1176593467548</v>
+        <v>208.1176593467547</v>
       </c>
       <c r="W13" t="n">
-        <v>242.5030143595178</v>
+        <v>242.5030143595177</v>
       </c>
       <c r="X13" t="n">
-        <v>181.689671411964</v>
+        <v>181.6896714119638</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.5646693750216</v>
+        <v>174.5646693750215</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>321.2529077939344</v>
+        <v>321.2529077939342</v>
       </c>
       <c r="D14" t="n">
-        <v>310.6630576436098</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>85.21592242969885</v>
+        <v>337.9103860951885</v>
       </c>
       <c r="F14" t="n">
-        <v>362.8560617646382</v>
+        <v>362.8560617646381</v>
       </c>
       <c r="G14" t="n">
-        <v>366.9017416763803</v>
+        <v>264.9723494919543</v>
       </c>
       <c r="H14" t="n">
-        <v>250.5877804102473</v>
+        <v>250.5877804102471</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.16777781110264</v>
+        <v>65.1677778111025</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>159.8979861625468</v>
       </c>
       <c r="U14" t="n">
-        <v>206.9751879818288</v>
+        <v>206.9751879818286</v>
       </c>
       <c r="V14" t="n">
-        <v>283.7322744930617</v>
+        <v>283.7322744930616</v>
       </c>
       <c r="W14" t="n">
-        <v>305.2209847403398</v>
+        <v>305.2209847403397</v>
       </c>
       <c r="X14" t="n">
-        <v>325.7111167013958</v>
+        <v>325.7111167013957</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.2179546789804</v>
+        <v>342.2179546789803</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.8119962048641</v>
+        <v>135.811996204864</v>
       </c>
       <c r="C16" t="n">
-        <v>123.2268371215546</v>
+        <v>123.2268371215545</v>
       </c>
       <c r="D16" t="n">
-        <v>104.5954890411392</v>
+        <v>104.595489041139</v>
       </c>
       <c r="E16" t="n">
-        <v>102.413978669496</v>
+        <v>102.4139786694958</v>
       </c>
       <c r="F16" t="n">
-        <v>101.401064045858</v>
+        <v>101.4010640458579</v>
       </c>
       <c r="G16" t="n">
-        <v>122.005824281955</v>
+        <v>122.0058242819549</v>
       </c>
       <c r="H16" t="n">
-        <v>100.7350309372476</v>
+        <v>100.7350309372474</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.33243643276476</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>26.79140202980416</v>
+        <v>44.91216869297399</v>
       </c>
       <c r="S16" t="n">
-        <v>145.7490413543687</v>
+        <v>145.7490413543686</v>
       </c>
       <c r="T16" t="n">
-        <v>175.528965299096</v>
+        <v>175.5289652990959</v>
       </c>
       <c r="U16" t="n">
-        <v>242.1918542285397</v>
+        <v>242.1918542285395</v>
       </c>
       <c r="V16" t="n">
-        <v>208.1176593467548</v>
+        <v>208.1176593467547</v>
       </c>
       <c r="W16" t="n">
-        <v>242.5030143595178</v>
+        <v>242.5030143595177</v>
       </c>
       <c r="X16" t="n">
-        <v>181.689671411964</v>
+        <v>181.6896714119638</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.5646693750216</v>
+        <v>104.1114662790892</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.7587050448878</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.2977551524148</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020902</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231187</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348607</v>
+        <v>118.6631570248058</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210274</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403092</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598763</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.1291178962699</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797644</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433852</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572805</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124537</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.9570160514546</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.7587050448878</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>318.2977551524148</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020902</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536691</v>
+        <v>179.9352266559955</v>
       </c>
       <c r="F20" t="n">
-        <v>178.3764882102184</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348607</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958311</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210274</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403092</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598763</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797644</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433852</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572805</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124537</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.9570160514546</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,19 +2482,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958338</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957295</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052335</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958338</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572928</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.573812657575</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448882</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524152</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020906</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536695</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231191</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348611</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687281</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958348</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403096</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515426</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988207</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598767</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374613</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633449</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800355</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.64033639962</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797681</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433889</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404359</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572842</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124574</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145497</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128495</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870205</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052356</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179986</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704448</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335024</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1398.083803246784</v>
+        <v>2022.196525084076</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.083803246784</v>
+        <v>1697.698638423537</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.083803246784</v>
+        <v>1383.897570096658</v>
       </c>
       <c r="E11" t="n">
-        <v>1056.760180928412</v>
+        <v>1042.573947778286</v>
       </c>
       <c r="F11" t="n">
-        <v>690.2389064186758</v>
+        <v>676.0526732685503</v>
       </c>
       <c r="G11" t="n">
-        <v>319.6310865435443</v>
+        <v>305.4448533934188</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3259.779783416137</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3098.266666080232</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2889.20081963394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2602.602562570241</v>
+        <v>3039.007564545473</v>
       </c>
       <c r="W11" t="n">
-        <v>2414.894842708181</v>
+        <v>3039.007564545473</v>
       </c>
       <c r="X11" t="n">
-        <v>2085.893714726973</v>
+        <v>2710.006436564266</v>
       </c>
       <c r="Y11" t="n">
-        <v>1740.219013031034</v>
+        <v>2364.331734868326</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,46 +5106,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.1964168706488</v>
+        <v>709.1964168706511</v>
       </c>
       <c r="C13" t="n">
-        <v>584.7248642226137</v>
+        <v>584.7248642226162</v>
       </c>
       <c r="D13" t="n">
-        <v>479.0728550901499</v>
+        <v>479.0728550901525</v>
       </c>
       <c r="E13" t="n">
-        <v>375.6243917876284</v>
+        <v>375.6243917876315</v>
       </c>
       <c r="F13" t="n">
-        <v>344.3639261816456</v>
+        <v>344.3639261816452</v>
       </c>
       <c r="G13" t="n">
-        <v>221.1257198362364</v>
+        <v>221.1257198362361</v>
       </c>
       <c r="H13" t="n">
-        <v>119.3731633339661</v>
+        <v>119.373163333966</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>155.2145330164214</v>
+        <v>155.2145330164215</v>
       </c>
       <c r="K13" t="n">
-        <v>402.7815001026003</v>
+        <v>402.7815001026004</v>
       </c>
       <c r="L13" t="n">
-        <v>762.9210826883989</v>
+        <v>762.9210826883991</v>
       </c>
       <c r="M13" t="n">
-        <v>1150.65791242525</v>
+        <v>1150.657912425251</v>
       </c>
       <c r="N13" t="n">
         <v>1535.646073268418</v>
       </c>
       <c r="O13" t="n">
-        <v>1878.555456326133</v>
+        <v>1878.555456326134</v>
       </c>
       <c r="P13" t="n">
-        <v>2154.742740897095</v>
+        <v>2154.742740897096</v>
       </c>
       <c r="Q13" t="n">
-        <v>2275.932821186912</v>
+        <v>2275.932821186913</v>
       </c>
       <c r="R13" t="n">
-        <v>2230.566994224312</v>
+        <v>2230.566994224313</v>
       </c>
       <c r="S13" t="n">
-        <v>2083.34574033101</v>
+        <v>2083.345740331011</v>
       </c>
       <c r="T13" t="n">
-        <v>1906.043755180408</v>
+        <v>1906.04375518041</v>
       </c>
       <c r="U13" t="n">
-        <v>1661.405518585924</v>
+        <v>1661.405518585926</v>
       </c>
       <c r="V13" t="n">
-        <v>1451.185660659909</v>
+        <v>1451.185660659911</v>
       </c>
       <c r="W13" t="n">
-        <v>1206.23312090282</v>
+        <v>1206.233120902822</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.708200284675</v>
+        <v>1022.708200284677</v>
       </c>
       <c r="Y13" t="n">
-        <v>846.3802514210166</v>
+        <v>846.3802514210188</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1781.135825238758</v>
+        <v>1619.622707902852</v>
       </c>
       <c r="C14" t="n">
-        <v>1456.637938578218</v>
+        <v>1295.124821242313</v>
       </c>
       <c r="D14" t="n">
-        <v>1142.83687025134</v>
+        <v>1295.124821242313</v>
       </c>
       <c r="E14" t="n">
-        <v>1056.760180928412</v>
+        <v>953.8011989239405</v>
       </c>
       <c r="F14" t="n">
-        <v>690.238906418676</v>
+        <v>587.279924414205</v>
       </c>
       <c r="G14" t="n">
-        <v>319.6310865435443</v>
+        <v>319.6310865435441</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5276,13 +5276,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3259.779783416138</v>
+        <v>3259.779783416139</v>
       </c>
       <c r="T14" t="n">
-        <v>3259.779783416138</v>
+        <v>3098.266666080233</v>
       </c>
       <c r="U14" t="n">
-        <v>3050.713936969847</v>
+        <v>2889.200819633941</v>
       </c>
       <c r="V14" t="n">
-        <v>2764.115679906148</v>
+        <v>2602.602562570242</v>
       </c>
       <c r="W14" t="n">
-        <v>2455.811654915906</v>
+        <v>2294.29853758</v>
       </c>
       <c r="X14" t="n">
-        <v>2126.810526934698</v>
+        <v>1965.297409598792</v>
       </c>
       <c r="Y14" t="n">
-        <v>1781.135825238758</v>
+        <v>1619.622707902852</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
@@ -5355,13 +5355,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.5002215809216</v>
+        <v>780.361268482704</v>
       </c>
       <c r="C16" t="n">
-        <v>603.0286689328866</v>
+        <v>655.8897158346691</v>
       </c>
       <c r="D16" t="n">
-        <v>497.3766598004227</v>
+        <v>550.2377067022054</v>
       </c>
       <c r="E16" t="n">
-        <v>393.9281964979016</v>
+        <v>446.7892433996843</v>
       </c>
       <c r="F16" t="n">
-        <v>291.502879279863</v>
+        <v>344.363926181646</v>
       </c>
       <c r="G16" t="n">
-        <v>168.2646729344537</v>
+        <v>221.1257198362361</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>119.373163333966</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>155.2145330164215</v>
+        <v>155.2145330164216</v>
       </c>
       <c r="K16" t="n">
-        <v>402.7815001026004</v>
+        <v>402.7815001026006</v>
       </c>
       <c r="L16" t="n">
-        <v>762.921082688399</v>
+        <v>762.9210826883993</v>
       </c>
       <c r="M16" t="n">
-        <v>1150.65791242525</v>
+        <v>1150.657912425251</v>
       </c>
       <c r="N16" t="n">
-        <v>1535.646073268417</v>
+        <v>1535.646073268418</v>
       </c>
       <c r="O16" t="n">
-        <v>1878.555456326133</v>
+        <v>1878.555456326134</v>
       </c>
       <c r="P16" t="n">
-        <v>2154.742740897095</v>
+        <v>2154.742740897096</v>
       </c>
       <c r="Q16" t="n">
-        <v>2275.932821186912</v>
+        <v>2275.932821186913</v>
       </c>
       <c r="R16" t="n">
-        <v>2248.870798934585</v>
+        <v>2230.566994224313</v>
       </c>
       <c r="S16" t="n">
-        <v>2101.649545041283</v>
+        <v>2083.345740331012</v>
       </c>
       <c r="T16" t="n">
-        <v>1924.347559890681</v>
+        <v>1906.04375518041</v>
       </c>
       <c r="U16" t="n">
-        <v>1679.709323296197</v>
+        <v>1661.405518585925</v>
       </c>
       <c r="V16" t="n">
-        <v>1469.489465370182</v>
+        <v>1451.185660659911</v>
       </c>
       <c r="W16" t="n">
-        <v>1224.536925613093</v>
+        <v>1206.233120902822</v>
       </c>
       <c r="X16" t="n">
-        <v>1041.012004994948</v>
+        <v>1022.708200284677</v>
       </c>
       <c r="Y16" t="n">
-        <v>864.6840561312894</v>
+        <v>917.5451030330715</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1430.000155131663</v>
+        <v>1459.895634131918</v>
       </c>
       <c r="C17" t="n">
-        <v>1108.487271139325</v>
+        <v>1138.382750139579</v>
       </c>
       <c r="D17" t="n">
-        <v>797.6712054806476</v>
+        <v>1138.382750139579</v>
       </c>
       <c r="E17" t="n">
-        <v>797.6712054806476</v>
+        <v>800.0441304894083</v>
       </c>
       <c r="F17" t="n">
-        <v>434.1349336391135</v>
+        <v>436.5078586478741</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,52 +5513,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T17" t="n">
-        <v>3167.077706941467</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="U17" t="n">
-        <v>2960.996863163377</v>
+        <v>3056.68394230625</v>
       </c>
       <c r="V17" t="n">
-        <v>2677.38360876788</v>
+        <v>2773.070687910752</v>
       </c>
       <c r="W17" t="n">
-        <v>2372.064586445839</v>
+        <v>2467.751665588712</v>
       </c>
       <c r="X17" t="n">
-        <v>2046.048461132833</v>
+        <v>2141.735540275705</v>
       </c>
       <c r="Y17" t="n">
-        <v>1769.150362247712</v>
+        <v>1799.045841247966</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,7 +5580,7 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
@@ -5592,34 +5592,34 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052932</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254598</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611975</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268779</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998334</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315258</v>
+        <v>158.1401341315259</v>
       </c>
       <c r="K19" t="n">
-        <v>408.632702332809</v>
+        <v>408.6327023328089</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337119</v>
+        <v>771.6978860337117</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702821</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107743</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813344</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588244</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105844</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.75033817956</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921747</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.54794583286</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882916</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874594</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1584.980773859712</v>
+        <v>1861.886876772798</v>
       </c>
       <c r="C20" t="n">
-        <v>1263.467889867374</v>
+        <v>1540.37399278046</v>
       </c>
       <c r="D20" t="n">
-        <v>952.6518242086972</v>
+        <v>1229.557927121783</v>
       </c>
       <c r="E20" t="n">
-        <v>614.3132045585264</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F20" t="n">
-        <v>434.1349336391135</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5753,7 +5753,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416636</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638546</v>
+        <v>3119.524977831081</v>
       </c>
       <c r="V20" t="n">
-        <v>2898.155827638546</v>
+        <v>2835.911723435584</v>
       </c>
       <c r="W20" t="n">
-        <v>2592.836805316505</v>
+        <v>2530.592701113543</v>
       </c>
       <c r="X20" t="n">
-        <v>2266.820680003499</v>
+        <v>2204.576575800536</v>
       </c>
       <c r="Y20" t="n">
-        <v>1924.130980975761</v>
+        <v>1861.886876772798</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052932</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254598</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611975</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268779</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998334</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315258</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
-        <v>408.632702332809</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337119</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702826</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107743</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813344</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588244</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105844</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.75033817956</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.515482921747</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.54794583286</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882916</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874594</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
         <v>1711.594658697162</v>
@@ -5972,10 +5972,10 @@
         <v>1400.778593038485</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
@@ -5987,28 +5987,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L23" t="n">
-        <v>1128.819561633582</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>1662.351466305506</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N23" t="n">
-        <v>2642.103738532153</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O23" t="n">
-        <v>3145.07620941149</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P23" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834459</v>
@@ -6020,16 +6020,16 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146294</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805549</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D24" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F24" t="n">
         <v>327.0192030246656</v>
@@ -6066,13 +6066,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803187</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6130,13 +6130,13 @@
         <v>549.947493825704</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
@@ -6148,7 +6148,7 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L25" t="n">
         <v>786.3326864982171</v>
@@ -6175,7 +6175,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
         <v>1711.385138644068</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398488</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>282.587335407025</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>937.3106675423244</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1388.344880790733</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>1921.876785462657</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524677</v>
+        <v>2468.65560252144</v>
       </c>
       <c r="O26" t="n">
-        <v>2826.495488321721</v>
+        <v>2971.628073400776</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456145</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644876</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032363</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6309,19 +6309,19 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,67 +6358,67 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698011</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899675</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257051</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913854</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415484</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643407</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982174</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297368</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519675</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6443,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198916</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6497,13 +6497,13 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805549</v>
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,61 +6595,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698006</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899673</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257049</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913852</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415481</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643404</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644069</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519673</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,58 +6686,58 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>677.7853483851718</v>
+        <v>907.4660419013985</v>
       </c>
       <c r="L32" t="n">
-        <v>1128.819561633581</v>
+        <v>1771.984857554753</v>
       </c>
       <c r="M32" t="n">
-        <v>1662.351466305505</v>
+        <v>2305.516762226677</v>
       </c>
       <c r="N32" t="n">
-        <v>2642.103738532152</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.076209411489</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
@@ -6774,28 +6774,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
@@ -6850,19 +6850,19 @@
         <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6898,10 +6898,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398489</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668921</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668921</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>924.7493799910142</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L35" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1909.315497911347</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N35" t="n">
-        <v>2468.65560252144</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O35" t="n">
-        <v>2971.628073400777</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P35" t="n">
-        <v>3684.983160847723</v>
+        <v>3477.955591919095</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603405</v>
+        <v>3936.433794428083</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309629</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641924</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863834</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668921</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R36" t="n">
         <v>2579.543989590362</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698015</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899676</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825705</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191385</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415478</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643399</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302708</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668921</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960325</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973193</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982218</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350177</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308448</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481268</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167334</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572255</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277856</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052755</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570354</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644071</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386257</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347425</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519681</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659142</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N38" t="n">
-        <v>2735.569460712894</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521975</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641924</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R39" t="n">
         <v>2579.543989590362</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415473</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,7 +7336,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388313</v>
@@ -7400,7 +7400,7 @@
         <v>698.9037015467784</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7412,28 +7412,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>810.8729904741861</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.992678104632</v>
+        <v>1261.907203722595</v>
       </c>
       <c r="M41" t="n">
-        <v>1928.524582776557</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.303399835339</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164794</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521972</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7488,19 +7488,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,25 +7567,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467778</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7646,52 +7646,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>924.7493799910142</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.783593239423</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M44" t="n">
-        <v>1909.315497911347</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285457</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164794</v>
+        <v>3126.472434869819</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415476</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643399</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,10 +7804,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L46" t="n">
         <v>786.3326864982168</v>
@@ -7816,13 +7816,13 @@
         <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7834,22 +7834,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.0917554489375</v>
+        <v>207.0917554489372</v>
       </c>
       <c r="L8" t="n">
-        <v>219.6411280128609</v>
+        <v>219.6411280128605</v>
       </c>
       <c r="M8" t="n">
-        <v>212.4037444773052</v>
+        <v>212.4037444773047</v>
       </c>
       <c r="N8" t="n">
-        <v>211.1802466203544</v>
+        <v>211.180246620354</v>
       </c>
       <c r="O8" t="n">
-        <v>212.8814793728455</v>
+        <v>212.881479372845</v>
       </c>
       <c r="P8" t="n">
-        <v>216.5389132747571</v>
+        <v>216.5389132747568</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.2710458816648</v>
+        <v>211.2710458816645</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.6722392886285</v>
+        <v>121.6722392886283</v>
       </c>
       <c r="K9" t="n">
-        <v>129.0129692144949</v>
+        <v>129.0129692144947</v>
       </c>
       <c r="L9" t="n">
-        <v>126.6834126868988</v>
+        <v>126.6834126868985</v>
       </c>
       <c r="M9" t="n">
-        <v>128.2811752418611</v>
+        <v>128.2811752418607</v>
       </c>
       <c r="N9" t="n">
-        <v>117.1222094543798</v>
+        <v>117.1222094543794</v>
       </c>
       <c r="O9" t="n">
-        <v>129.5881775442801</v>
+        <v>129.5881775442798</v>
       </c>
       <c r="P9" t="n">
-        <v>123.5342869155127</v>
+        <v>123.5342869155125</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.0028300142317</v>
+        <v>133.0028300142315</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.0701282031727</v>
+        <v>128.0701282031725</v>
       </c>
       <c r="M10" t="n">
-        <v>131.7407984694293</v>
+        <v>131.7407984694292</v>
       </c>
       <c r="N10" t="n">
-        <v>120.6714018824963</v>
+        <v>120.6714018824961</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9778425048106</v>
+        <v>131.9778425048104</v>
       </c>
       <c r="P10" t="n">
-        <v>132.1843604371515</v>
+        <v>132.1843604371513</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>74.68679478748646</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>277.220684154416</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>12.68816924374786</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>190.2350110279878</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>306.6874953089242</v>
+        <v>274.8351763665443</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>74.68679478748561</v>
+        <v>306.6874953089269</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>12.68816924374767</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>62.52018570663925</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>343.5485285966308</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.9051702753184</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>40.02214132148697</v>
       </c>
       <c r="L41" t="n">
-        <v>174.451913424555</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>400.2032972882096</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>231.1066821161376</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>321.2529077939344</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.6630576436098</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>14.04437081862416</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.1677778111025</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>159.8979861625468</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>206.9751879818286</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>119.3903420769006</v>
+        <v>305.2209847403397</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>70.45320309593527</v>
+        <v>70.45320309593161</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.7138576864074</v>
+        <v>338.7138576864073</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.6630576436096</v>
       </c>
       <c r="E14" t="n">
-        <v>252.6944636654897</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>101.9293921844259</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>159.8979861625469</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>52.3324364327649</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.12076666316997</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>70.4532030959323</v>
       </c>
     </row>
     <row r="17">
@@ -23735,19 +23735,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536691</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>245.2834320100551</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687277</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958311</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>65.13368414119091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>155.0200067976737</v>
       </c>
       <c r="F20" t="n">
-        <v>181.5244209129003</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687277</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515422</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.975308805413079e-12</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.719513420539442e-12</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>982381.2778629187</v>
+        <v>982381.2778629186</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845260.7054432116</v>
+        <v>845260.7054432119</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>845260.7054432116</v>
+        <v>845260.7054432117</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>850743.2143190246</v>
+        <v>850743.2143190244</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>850743.2143190247</v>
+        <v>850743.2143190244</v>
       </c>
     </row>
     <row r="9">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
-        <v>532534.9071286536</v>
+        <v>532534.9071286537</v>
       </c>
       <c r="E2" t="n">
-        <v>493705.4920926901</v>
+        <v>493705.4920926907</v>
       </c>
       <c r="F2" t="n">
-        <v>493705.4920926904</v>
+        <v>493705.4920926907</v>
       </c>
       <c r="G2" t="n">
         <v>496945.1564283979</v>
@@ -26332,28 +26332,28 @@
         <v>496945.1564283979</v>
       </c>
       <c r="I2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="J2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="K2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="L2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="L2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="M2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.150411784</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21768.40754808845</v>
+        <v>21768.407548089</v>
       </c>
       <c r="E3" t="n">
-        <v>1138563.07230445</v>
+        <v>1138563.072304449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2364.122113215637</v>
+        <v>2364.122113215393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902274</v>
+        <v>48646.25967902272</v>
       </c>
       <c r="J3" t="n">
-        <v>35215.9871816586</v>
+        <v>35215.98718165859</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2364.122113215581</v>
+        <v>2364.122113215433</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>35215.98718165849</v>
+        <v>35215.98718165854</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>424104.32716035</v>
+        <v>424104.3271603498</v>
       </c>
       <c r="E4" t="n">
-        <v>54753.5582086057</v>
+        <v>54753.55820860584</v>
       </c>
       <c r="F4" t="n">
-        <v>54753.55820860573</v>
+        <v>54753.55820860584</v>
       </c>
       <c r="G4" t="n">
-        <v>57605.61344858634</v>
+        <v>57605.61344858626</v>
       </c>
       <c r="H4" t="n">
-        <v>57605.61344858634</v>
+        <v>57605.61344858624</v>
       </c>
       <c r="I4" t="n">
+        <v>80755.36360646601</v>
+      </c>
+      <c r="J4" t="n">
+        <v>80755.36360646595</v>
+      </c>
+      <c r="K4" t="n">
         <v>80755.36360646592</v>
       </c>
-      <c r="J4" t="n">
-        <v>80755.36360646598</v>
-      </c>
-      <c r="K4" t="n">
-        <v>80755.36360646598</v>
-      </c>
       <c r="L4" t="n">
-        <v>80755.36360646591</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646589</v>
+        <v>80755.36360646599</v>
       </c>
       <c r="N4" t="n">
+        <v>80755.36360646602</v>
+      </c>
+      <c r="O4" t="n">
+        <v>80755.36360646594</v>
+      </c>
+      <c r="P4" t="n">
         <v>80755.36360646597</v>
-      </c>
-      <c r="O4" t="n">
-        <v>80755.36360646592</v>
-      </c>
-      <c r="P4" t="n">
-        <v>80755.36360646595</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34181.71434720629</v>
+        <v>34181.7143472063</v>
       </c>
       <c r="E5" t="n">
-        <v>78007.05659436186</v>
+        <v>78007.05659436189</v>
       </c>
       <c r="F5" t="n">
-        <v>78007.05659436187</v>
+        <v>78007.05659436189</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,10 +26500,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480615</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480615</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.9416748061</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68003.5107233992</v>
+        <v>67999.09714553098</v>
       </c>
       <c r="C6" t="n">
-        <v>68003.5107233992</v>
+        <v>67999.09714553098</v>
       </c>
       <c r="D6" t="n">
-        <v>52480.45807300881</v>
+        <v>52476.06482961196</v>
       </c>
       <c r="E6" t="n">
-        <v>-777618.195014727</v>
+        <v>-777771.9321621076</v>
       </c>
       <c r="F6" t="n">
-        <v>360944.8772897228</v>
+        <v>360791.1401423418</v>
       </c>
       <c r="G6" t="n">
-        <v>358719.9275448142</v>
+        <v>358578.6506448784</v>
       </c>
       <c r="H6" t="n">
-        <v>361084.0496580298</v>
+        <v>360942.7727580938</v>
       </c>
       <c r="I6" t="n">
-        <v>314897.5854514895</v>
+        <v>314897.5854514896</v>
       </c>
       <c r="J6" t="n">
         <v>328327.8579488535</v>
       </c>
       <c r="K6" t="n">
-        <v>363543.8451305122</v>
+        <v>363543.8451305121</v>
       </c>
       <c r="L6" t="n">
-        <v>361179.7230172969</v>
+        <v>361179.7230172968</v>
       </c>
       <c r="M6" t="n">
-        <v>156355.2768384393</v>
+        <v>156355.2768384389</v>
       </c>
       <c r="N6" t="n">
-        <v>363543.8451305118</v>
+        <v>363543.8451305119</v>
       </c>
       <c r="O6" t="n">
-        <v>328327.8579488539</v>
+        <v>328327.8579488535</v>
       </c>
       <c r="P6" t="n">
-        <v>363543.8451305122</v>
+        <v>363543.845130512</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="F2" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="O2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932138948</v>
+        <v>25.41808932139012</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26811,19 +26811,19 @@
         <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.955152641519547</v>
+        <v>2.955152641519241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519476</v>
+        <v>2.955152641519291</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>44.01998397707329</v>
+        <v>44.01998397707317</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932138948</v>
+        <v>25.41808932139012</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.358611271909</v>
+        <v>1064.358611271908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519547</v>
+        <v>2.955152641519241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,10 +27871,10 @@
         <v>338.4283176644599</v>
       </c>
       <c r="I8" t="n">
-        <v>206.5364689128668</v>
+        <v>206.5364689128666</v>
       </c>
       <c r="J8" t="n">
-        <v>3.276611732336011</v>
+        <v>3.276611732335793</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.4503478774925</v>
+        <v>143.4503478774923</v>
       </c>
       <c r="S8" t="n">
         <v>206.6915682378587</v>
@@ -27950,7 +27950,7 @@
         <v>111.7074193998389</v>
       </c>
       <c r="I9" t="n">
-        <v>87.51425548185935</v>
+        <v>87.51425548185929</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.76332026176021</v>
+        <v>96.76332026176013</v>
       </c>
       <c r="S9" t="n">
-        <v>170.6676464974597</v>
+        <v>170.6676464974596</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9443586562711</v>
+        <v>199.944358656271</v>
       </c>
       <c r="U9" t="n">
         <v>225.9377851815426</v>
@@ -28032,10 +28032,10 @@
         <v>154.072064444059</v>
       </c>
       <c r="J10" t="n">
-        <v>90.11858207319005</v>
+        <v>90.11858207318997</v>
       </c>
       <c r="K10" t="n">
-        <v>16.94419376805732</v>
+        <v>16.94419376805719</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.32391176416458</v>
+        <v>82.32391176416448</v>
       </c>
       <c r="R10" t="n">
-        <v>175.2324426921926</v>
+        <v>175.2324426921925</v>
       </c>
       <c r="S10" t="n">
         <v>223.2178033282984</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="C11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="D11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="E11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="F11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="G11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="H11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="T11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="U11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="V11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="W11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="X11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="C13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="D13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="E13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="F13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="G13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="H13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="I13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="J13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="K13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="L13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="M13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="N13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="O13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="P13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="R13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="S13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="T13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="U13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="V13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="W13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="X13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.01998397707318</v>
+        <v>44.01998397707333</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="C14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="D14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="E14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="F14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="G14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="H14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="T14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="U14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="V14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="W14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="X14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="C16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="D16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="E16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="F16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="G16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="H16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="I16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="J16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="K16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="L16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="M16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="N16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="O16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="P16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="R16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="S16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="T16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="U16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="V16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="W16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="X16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.01998397707319</v>
+        <v>44.01998397707333</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661858864</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661858844</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859767</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859235</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859122</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.102183273653827</v>
+        <v>0.1021832736538296</v>
       </c>
       <c r="H8" t="n">
-        <v>1.046484451307256</v>
+        <v>1.046484451307282</v>
       </c>
       <c r="I8" t="n">
-        <v>3.939420657539169</v>
+        <v>3.939420657539268</v>
       </c>
       <c r="J8" t="n">
-        <v>8.672677622276506</v>
+        <v>8.672677622276725</v>
       </c>
       <c r="K8" t="n">
-        <v>12.99809559604301</v>
+        <v>12.99809559604333</v>
       </c>
       <c r="L8" t="n">
-        <v>16.12528695712632</v>
+        <v>16.12528695712672</v>
       </c>
       <c r="M8" t="n">
-        <v>17.94248874996756</v>
+        <v>17.94248874996801</v>
       </c>
       <c r="N8" t="n">
-        <v>18.2328169762365</v>
+        <v>18.23281697623696</v>
       </c>
       <c r="O8" t="n">
-        <v>17.21673204884125</v>
+        <v>17.21673204884169</v>
       </c>
       <c r="P8" t="n">
-        <v>14.6940824805124</v>
+        <v>14.69408248051277</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.03464399278472</v>
+        <v>11.03464399278499</v>
       </c>
       <c r="R8" t="n">
-        <v>6.418770063657216</v>
+        <v>6.418770063657377</v>
       </c>
       <c r="S8" t="n">
-        <v>2.328501348386585</v>
+        <v>2.328501348386643</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4473072804196279</v>
+        <v>0.4473072804196391</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008174661892306158</v>
+        <v>0.008174661892306362</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05467287137053587</v>
+        <v>0.05467287137053724</v>
       </c>
       <c r="H9" t="n">
-        <v>0.528024836657544</v>
+        <v>0.5280248366575572</v>
       </c>
       <c r="I9" t="n">
-        <v>1.882377369555731</v>
+        <v>1.882377369555778</v>
       </c>
       <c r="J9" t="n">
-        <v>5.165387378038217</v>
+        <v>5.165387378038346</v>
       </c>
       <c r="K9" t="n">
-        <v>8.82846975986412</v>
+        <v>8.82846975986434</v>
       </c>
       <c r="L9" t="n">
-        <v>11.87096709297535</v>
+        <v>11.87096709297564</v>
       </c>
       <c r="M9" t="n">
-        <v>13.85285868015727</v>
+        <v>13.85285868015761</v>
       </c>
       <c r="N9" t="n">
-        <v>14.21950262895354</v>
+        <v>14.21950262895389</v>
       </c>
       <c r="O9" t="n">
-        <v>13.0080669001643</v>
+        <v>13.00806690016462</v>
       </c>
       <c r="P9" t="n">
-        <v>10.4401204988175</v>
+        <v>10.44012049881777</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.978944071789808</v>
+        <v>6.978944071789982</v>
       </c>
       <c r="R9" t="n">
-        <v>3.394513890882922</v>
+        <v>3.394513890883006</v>
       </c>
       <c r="S9" t="n">
-        <v>1.015524606378155</v>
+        <v>1.01552460637818</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2203700385505371</v>
+        <v>0.2203700385505426</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003596899432272099</v>
+        <v>0.003596899432272188</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04583589877627611</v>
+        <v>0.04583589877627726</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4075228091199825</v>
+        <v>0.4075228091199927</v>
       </c>
       <c r="I10" t="n">
-        <v>1.378410483199286</v>
+        <v>1.37841048319932</v>
       </c>
       <c r="J10" t="n">
-        <v>3.240598043482721</v>
+        <v>3.240598043482802</v>
       </c>
       <c r="K10" t="n">
-        <v>5.325298057825533</v>
+        <v>5.325298057825666</v>
       </c>
       <c r="L10" t="n">
-        <v>6.814548078065633</v>
+        <v>6.814548078065804</v>
       </c>
       <c r="M10" t="n">
-        <v>7.184985478175718</v>
+        <v>7.184985478175897</v>
       </c>
       <c r="N10" t="n">
-        <v>7.014142582736876</v>
+        <v>7.014142582737051</v>
       </c>
       <c r="O10" t="n">
-        <v>6.478695947032193</v>
+        <v>6.478695947032356</v>
       </c>
       <c r="P10" t="n">
-        <v>5.543643611996156</v>
+        <v>5.543643611996295</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.838131487529812</v>
+        <v>3.838131487529908</v>
       </c>
       <c r="R10" t="n">
-        <v>2.060948684976924</v>
+        <v>2.060948684976975</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7987947086738298</v>
+        <v>0.7987947086738498</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1958442947713615</v>
+        <v>0.1958442947713664</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002500139933251427</v>
+        <v>0.00250013993325149</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138796</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32567,7 +32567,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340054</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.59840059013941</v>
+        <v>89.59840059013956</v>
       </c>
       <c r="K13" t="n">
-        <v>250.0676435213928</v>
+        <v>250.0676435213929</v>
       </c>
       <c r="L13" t="n">
-        <v>363.7773561472713</v>
+        <v>363.7773561472714</v>
       </c>
       <c r="M13" t="n">
-        <v>391.653363370557</v>
+        <v>391.6533633705571</v>
       </c>
       <c r="N13" t="n">
-        <v>388.8769301446133</v>
+        <v>388.8769301446134</v>
       </c>
       <c r="O13" t="n">
-        <v>346.373114199713</v>
+        <v>346.3731141997131</v>
       </c>
       <c r="P13" t="n">
-        <v>278.9770551221836</v>
+        <v>278.9770551221837</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.4142225149668</v>
+        <v>122.414222514967</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.59840059013945</v>
+        <v>89.59840059013956</v>
       </c>
       <c r="K16" t="n">
-        <v>250.0676435213928</v>
+        <v>250.0676435213929</v>
       </c>
       <c r="L16" t="n">
-        <v>363.7773561472713</v>
+        <v>363.7773561472715</v>
       </c>
       <c r="M16" t="n">
-        <v>391.653363370557</v>
+        <v>391.6533633705571</v>
       </c>
       <c r="N16" t="n">
-        <v>388.8769301446133</v>
+        <v>388.8769301446134</v>
       </c>
       <c r="O16" t="n">
-        <v>346.373114199713</v>
+        <v>346.3731141997131</v>
       </c>
       <c r="P16" t="n">
-        <v>278.9770551221836</v>
+        <v>278.9770551221837</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.4142225149668</v>
+        <v>122.414222514967</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165895</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629123</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120766</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412325</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077636991</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564864</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165895</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629123</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120766</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412325</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637032</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564821</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>530.2769091798186</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737876</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36531,7 +36531,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>203.4751702124604</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>698.2880119162069</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>858.9893307218357</v>
+        <v>827.1370117794555</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>411.8780813428861</v>
+        <v>643.8787818643273</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>564.9900046566592</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>122.133384248864</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165858</v>
+        <v>92.55355323165989</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629172</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120762</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861324</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637028</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.369375156486</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>882.4696444268574</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>625.9581711635375</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564848</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>377.2134278768874</v>
       </c>
       <c r="L41" t="n">
-        <v>630.0420278168872</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887899</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>952.5051327011211</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>629.8686683355093</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
